--- a/C++ Projects/unicardsCpp/cardslist.xlsx
+++ b/C++ Projects/unicardsCpp/cardslist.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwyma\Documents\Code\Sandbox\C++ Projects\unicardsCpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5396C9E-8FC3-4C47-8179-6CCA57AE0F58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D68A47B-C0F5-4DA0-98AB-596A695259BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{EDACC099-9B73-4440-84CA-30458E42E676}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17860" xr2:uid="{EDACC099-9B73-4440-84CA-30458E42E676}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="102">
   <si>
     <t>Baby Unicorn (Red)</t>
   </si>
@@ -315,6 +315,33 @@
   </si>
   <si>
     <t>Quant</t>
+  </si>
+  <si>
+    <t>OnEnter</t>
+  </si>
+  <si>
+    <t>OnTurn</t>
+  </si>
+  <si>
+    <t>OnExit</t>
+  </si>
+  <si>
+    <t>OnSacr</t>
+  </si>
+  <si>
+    <t>OnDest</t>
+  </si>
+  <si>
+    <t>Loop all unicorns in stable, set hasEffect = false.</t>
+  </si>
+  <si>
+    <t>Loop all unicorns in stable, set hasEffect = true.</t>
+  </si>
+  <si>
+    <t>Flip player-nannycammed.</t>
+  </si>
+  <si>
+    <t>Tiny Stable</t>
   </si>
 </sst>
 </file>
@@ -709,15 +736,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B356FB-370A-4FC4-B056-A1B62FB450DA}">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="39.86328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -730,8 +762,23 @@
       <c r="D1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -745,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -759,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -773,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -787,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -801,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -815,7 +862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>6</v>
       </c>
@@ -829,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -843,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -857,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>9</v>
       </c>
@@ -871,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>10</v>
       </c>
@@ -885,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>11</v>
       </c>
@@ -899,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>12</v>
       </c>
@@ -913,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>13</v>
       </c>
@@ -927,7 +974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>14</v>
       </c>
@@ -941,7 +988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>15</v>
       </c>
@@ -955,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>16</v>
       </c>
@@ -969,7 +1016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>17</v>
       </c>
@@ -983,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>18</v>
       </c>
@@ -997,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1011,7 +1058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1025,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1039,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1053,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1067,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1081,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1095,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1109,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1123,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1137,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1151,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1165,7 +1212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1179,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1193,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1207,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1221,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1235,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1249,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1263,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1277,7 +1324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1291,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1305,7 +1352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1319,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1333,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1347,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1361,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1375,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1389,7 +1436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1403,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1417,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1431,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1445,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1459,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1473,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1487,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1501,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1515,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1529,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1543,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1557,7 +1604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1571,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1585,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1599,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1613,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1627,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1641,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1655,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1669,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1683,7 +1730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1697,7 +1744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1711,7 +1758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1725,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1739,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1753,7 +1800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1767,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1781,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1795,7 +1842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1809,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1823,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1837,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1851,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1865,7 +1912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1879,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1893,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1907,7 +1954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1921,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1935,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1949,7 +1996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1963,7 +2010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1977,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1991,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>90</v>
       </c>
@@ -2005,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>91</v>
       </c>
@@ -2019,7 +2066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>92</v>
       </c>
@@ -2033,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>93</v>
       </c>
@@ -2047,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>94</v>
       </c>
@@ -2061,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>95</v>
       </c>
@@ -2075,7 +2122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>96</v>
       </c>
@@ -2089,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>97</v>
       </c>
@@ -2103,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>98</v>
       </c>
@@ -2117,7 +2164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>99</v>
       </c>
@@ -2131,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>100</v>
       </c>
@@ -2145,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>101</v>
       </c>
@@ -2159,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>102</v>
       </c>
@@ -2173,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>103</v>
       </c>
@@ -2187,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>104</v>
       </c>
@@ -2201,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>105</v>
       </c>
@@ -2215,7 +2262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>106</v>
       </c>
@@ -2229,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>107</v>
       </c>
@@ -2243,7 +2290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>108</v>
       </c>
@@ -2256,8 +2303,14 @@
       <c r="D110" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E110" t="s">
+        <v>100</v>
+      </c>
+      <c r="G110" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>109</v>
       </c>
@@ -2271,12 +2324,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>79</v>
@@ -2285,21 +2338,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D113" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E113" t="s">
+        <v>98</v>
+      </c>
+      <c r="F113" t="s">
+        <v>98</v>
+      </c>
+      <c r="G113" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>112</v>
       </c>
@@ -2313,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>113</v>
       </c>
@@ -2327,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>114</v>
       </c>
@@ -2341,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>115</v>
       </c>
@@ -2355,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>116</v>
       </c>
@@ -2369,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>117</v>
       </c>
@@ -2383,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>118</v>
       </c>
@@ -2397,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>119</v>
       </c>
@@ -2411,7 +2473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>120</v>
       </c>
@@ -2425,7 +2487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>121</v>
       </c>
@@ -2439,7 +2501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>122</v>
       </c>
@@ -2453,7 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A125">
         <v>123</v>
       </c>
@@ -2467,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>124</v>
       </c>
@@ -2481,12 +2543,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>86</v>
@@ -2495,16 +2557,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
+    <row r="128" spans="1:7" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="D128" s="2">
-        <f>SUM(D2:D127)</f>
-        <v>126</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2">
+        <f>SUM(D2:D128)</f>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D128" xr:uid="{6DC30247-8BB8-4A88-8E25-D7771029D849}"/>
+  <autoFilter ref="A1:D129" xr:uid="{6DC30247-8BB8-4A88-8E25-D7771029D849}"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" tooltip="Baby Unicorn (Red)" display="https://unstableunicorns.fandom.com/wiki/Baby_Unicorn_(Red)" xr:uid="{20B948EE-7B5C-4718-86D9-44A0653C3571}"/>
     <hyperlink ref="B4" r:id="rId2" tooltip="Baby Unicorn (Orange)" display="https://unstableunicorns.fandom.com/wiki/Baby_Unicorn_(Orange)" xr:uid="{1077363B-F69B-4485-BB94-8D25E04592B5}"/>
@@ -2584,8 +2660,8 @@
     <hyperlink ref="B109" r:id="rId76" tooltip="Slowdown" display="https://unstableunicorns.fandom.com/wiki/Slowdown" xr:uid="{0F4E99C7-15BD-455E-800E-F5F8D08DE2A1}"/>
     <hyperlink ref="B110" r:id="rId77" tooltip="Nanny Cam" display="https://unstableunicorns.fandom.com/wiki/Nanny_Cam" xr:uid="{A0FA872B-67E7-4753-9EE1-231DD57E0F55}"/>
     <hyperlink ref="B111" r:id="rId78" tooltip="Broken Stable" display="https://unstableunicorns.fandom.com/wiki/Broken_Stable" xr:uid="{CDA357CB-600E-422B-9F0B-9F2048BB6C2F}"/>
-    <hyperlink ref="B112" r:id="rId79" tooltip="Blinding Light" display="https://unstableunicorns.fandom.com/wiki/Blinding_Light" xr:uid="{41AFBC18-2CAB-4FE5-ABB9-1255B6CECA33}"/>
-    <hyperlink ref="B127" r:id="rId80" tooltip="Super Neigh" display="https://unstableunicorns.fandom.com/wiki/Super_Neigh" xr:uid="{39F3C9ED-1E27-4CD4-A52A-DA9548D59913}"/>
+    <hyperlink ref="B113" r:id="rId79" tooltip="Blinding Light" display="https://unstableunicorns.fandom.com/wiki/Blinding_Light" xr:uid="{41AFBC18-2CAB-4FE5-ABB9-1255B6CECA33}"/>
+    <hyperlink ref="B128" r:id="rId80" tooltip="Super Neigh" display="https://unstableunicorns.fandom.com/wiki/Super_Neigh" xr:uid="{39F3C9ED-1E27-4CD4-A52A-DA9548D59913}"/>
     <hyperlink ref="B2" r:id="rId81" tooltip="Baby Unicorn (Pink)" display="https://unstableunicorns.fandom.com/wiki/Baby_Unicorn_(Pink)" xr:uid="{2243FDB0-497B-498D-A4B4-5F50EF8589F4}"/>
     <hyperlink ref="B16" r:id="rId82" tooltip="Basic Unicorn (Red)" display="https://unstableunicorns.fandom.com/wiki/Basic_Unicorn_(Red)" xr:uid="{52D7BD17-47C2-4DB9-B52C-3F81AC21C7CF}"/>
     <hyperlink ref="B17" r:id="rId83" tooltip="Basic Unicorn (Red)" display="https://unstableunicorns.fandom.com/wiki/Basic_Unicorn_(Red)" xr:uid="{126F83CF-A7BA-46AB-8592-E4240734C890}"/>
@@ -2618,20 +2694,20 @@
     <hyperlink ref="B98" r:id="rId110" tooltip="Glitter Bomb" display="https://unstableunicorns.fandom.com/wiki/Glitter_Bomb" xr:uid="{E95D7FCF-EDAC-43C7-9CC0-5BE7BDA5A30E}"/>
     <hyperlink ref="B100" r:id="rId111" tooltip="Yay" display="https://unstableunicorns.fandom.com/wiki/Yay" xr:uid="{BD5C3AAC-7C8F-42A9-B52D-656C874AFAE7}"/>
     <hyperlink ref="B102" r:id="rId112" tooltip="Unicorn Lasso" display="https://unstableunicorns.fandom.com/wiki/Unicorn_Lasso" xr:uid="{6DEBD8DE-0B6D-44F3-95C4-A28AED3CA33D}"/>
-    <hyperlink ref="B113" r:id="rId113" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{B743F9C8-8F35-4512-B91E-F38ABAB7FE3E}"/>
-    <hyperlink ref="B114" r:id="rId114" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{B2D4DD59-695C-461D-A1D8-C60ED0CD4647}"/>
-    <hyperlink ref="B115" r:id="rId115" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{B6E83F83-659E-45F0-9AEF-CC17C811CFDF}"/>
-    <hyperlink ref="B116" r:id="rId116" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{8CF13183-573E-482E-A9AE-AA27643771DC}"/>
-    <hyperlink ref="B117" r:id="rId117" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{B07036D5-657C-4CC3-B067-92F2BF63721F}"/>
-    <hyperlink ref="B118" r:id="rId118" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{D53D7E8D-174B-4EBE-871E-C2DD93038E40}"/>
-    <hyperlink ref="B119" r:id="rId119" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{023459C8-9911-4DE9-A8C2-16AEFB5D948D}"/>
-    <hyperlink ref="B120" r:id="rId120" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{29B6869C-82E6-41AA-8B7C-12D9BEFAA6C5}"/>
-    <hyperlink ref="B121" r:id="rId121" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{960B656D-E1F3-402F-950C-61B768C99CF8}"/>
-    <hyperlink ref="B122" r:id="rId122" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{D4EF8EB8-363E-4FCA-9DC1-E477BDE33F68}"/>
-    <hyperlink ref="B123" r:id="rId123" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{551C7419-67C6-4907-8526-2937D9967709}"/>
-    <hyperlink ref="B124" r:id="rId124" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{3B414FAE-A7F7-416C-AC1B-E7B14D8F1C57}"/>
-    <hyperlink ref="B125" r:id="rId125" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{3AFDC9AD-C191-4215-9CE5-EB56892E4127}"/>
-    <hyperlink ref="B126" r:id="rId126" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{44D8C059-50C0-4EA7-9CD0-18882DAB4CC2}"/>
+    <hyperlink ref="B114" r:id="rId113" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{B743F9C8-8F35-4512-B91E-F38ABAB7FE3E}"/>
+    <hyperlink ref="B115" r:id="rId114" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{B2D4DD59-695C-461D-A1D8-C60ED0CD4647}"/>
+    <hyperlink ref="B116" r:id="rId115" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{B6E83F83-659E-45F0-9AEF-CC17C811CFDF}"/>
+    <hyperlink ref="B117" r:id="rId116" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{8CF13183-573E-482E-A9AE-AA27643771DC}"/>
+    <hyperlink ref="B118" r:id="rId117" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{B07036D5-657C-4CC3-B067-92F2BF63721F}"/>
+    <hyperlink ref="B119" r:id="rId118" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{D53D7E8D-174B-4EBE-871E-C2DD93038E40}"/>
+    <hyperlink ref="B120" r:id="rId119" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{023459C8-9911-4DE9-A8C2-16AEFB5D948D}"/>
+    <hyperlink ref="B121" r:id="rId120" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{29B6869C-82E6-41AA-8B7C-12D9BEFAA6C5}"/>
+    <hyperlink ref="B122" r:id="rId121" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{960B656D-E1F3-402F-950C-61B768C99CF8}"/>
+    <hyperlink ref="B123" r:id="rId122" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{D4EF8EB8-363E-4FCA-9DC1-E477BDE33F68}"/>
+    <hyperlink ref="B124" r:id="rId123" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{551C7419-67C6-4907-8526-2937D9967709}"/>
+    <hyperlink ref="B125" r:id="rId124" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{3B414FAE-A7F7-416C-AC1B-E7B14D8F1C57}"/>
+    <hyperlink ref="B126" r:id="rId125" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{3AFDC9AD-C191-4215-9CE5-EB56892E4127}"/>
+    <hyperlink ref="B127" r:id="rId126" tooltip="Neigh" display="https://unstableunicorns.fandom.com/wiki/Neigh" xr:uid="{44D8C059-50C0-4EA7-9CD0-18882DAB4CC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId127"/>
